--- a/datos/consolidado.xlsx
+++ b/datos/consolidado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhernandezs\Documents\documentos lhs\python\distribuidor1\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30BE02-10B1-448D-96F8-CB8EE1040EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9767383E-9A6E-4438-BED0-D12EDAADFEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fichasD" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="214">
   <si>
     <t>NFICHA</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>ORIENTAR INVESTIGACION FORMATIVA SEGUN LOS REFERENTES TECNICOS</t>
+  </si>
+  <si>
+    <t>ERICK RUIZ NOREÑA</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,9 +866,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -6062,8 +6062,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6663,7 +6663,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>124</v>
@@ -6807,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection sqref="A1:H156"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6824,28 +6824,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6859,13 +6859,13 @@
       <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="5">
         <v>2879845</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>45250</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="5">
         <v>44</v>
       </c>
       <c r="G2" t="s">
@@ -6885,13 +6885,13 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="5">
         <v>2879836</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>45250</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="5">
         <v>43</v>
       </c>
       <c r="G3" t="s">
@@ -6911,13 +6911,13 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="5">
         <v>2879843</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>45250</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="5">
         <v>43</v>
       </c>
       <c r="G4" t="s">
@@ -6937,13 +6937,13 @@
       <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="5">
         <v>2879842</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>45250</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="5">
         <v>50</v>
       </c>
       <c r="G5" t="s">
@@ -6963,13 +6963,13 @@
       <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="5">
         <v>2879840</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>45250</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="5">
         <v>44</v>
       </c>
       <c r="G6" t="s">
@@ -6989,13 +6989,13 @@
       <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="5">
         <v>2879835</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>45250</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="5">
         <v>43</v>
       </c>
       <c r="G7" t="s">
@@ -7015,13 +7015,13 @@
       <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="5">
         <v>2879841</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>45250</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="5">
         <v>43</v>
       </c>
       <c r="G8" t="s">
@@ -7041,13 +7041,13 @@
       <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="5">
         <v>2879847</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>45250</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="5">
         <v>40</v>
       </c>
       <c r="G9" t="s">
@@ -7067,13 +7067,13 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="5">
         <v>2879839</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>45250</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="5">
         <v>39</v>
       </c>
       <c r="G10" t="s">
@@ -7093,13 +7093,13 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="5">
         <v>2879837</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>45250</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="5">
         <v>39</v>
       </c>
       <c r="G11" t="s">
@@ -7119,13 +7119,13 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="5">
         <v>3070343</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>45551</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="5">
         <v>43</v>
       </c>
       <c r="G12" t="s">
@@ -7145,13 +7145,13 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="5">
         <v>3070337</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>45551</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="5">
         <v>37</v>
       </c>
       <c r="G13" t="s">
@@ -7171,13 +7171,13 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="5">
         <v>3070341</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>45551</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="5">
         <v>37</v>
       </c>
       <c r="G14" t="s">
@@ -7197,13 +7197,13 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="5">
         <v>3070335</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>45551</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="5">
         <v>34</v>
       </c>
       <c r="G15" t="s">
@@ -7223,13 +7223,13 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="5">
         <v>3070334</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>45551</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="5">
         <v>33</v>
       </c>
       <c r="G16" t="s">
@@ -7249,13 +7249,13 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="5">
         <v>3070339</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>45551</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="5">
         <v>36</v>
       </c>
       <c r="G17" t="s">
@@ -7275,13 +7275,13 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="5">
         <v>3070344</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>45551</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="5">
         <v>41</v>
       </c>
       <c r="G18" t="s">
@@ -7301,13 +7301,13 @@
       <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="5">
         <v>3070345</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>45551</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="5">
         <v>41</v>
       </c>
       <c r="G19" t="s">
@@ -7327,13 +7327,13 @@
       <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="5">
         <v>3070338</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>45551</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="5">
         <v>35</v>
       </c>
       <c r="G20" t="s">
@@ -7353,13 +7353,13 @@
       <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="5">
         <v>3070336</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>45551</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="5">
         <v>34</v>
       </c>
       <c r="G21" t="s">
@@ -7379,13 +7379,13 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="5">
         <v>3070340</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>45551</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="5">
         <v>33</v>
       </c>
       <c r="G22" t="s">
@@ -7405,13 +7405,13 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="5">
         <v>3070342</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>45551</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="5">
         <v>36</v>
       </c>
       <c r="G23" t="s">
@@ -7431,13 +7431,13 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="5">
         <v>2834851</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>45180</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="5">
         <v>45</v>
       </c>
       <c r="G24" t="s">
@@ -7457,13 +7457,13 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="5">
         <v>2879697</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>45250</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="5">
         <v>42</v>
       </c>
       <c r="G25" t="s">
@@ -7483,13 +7483,13 @@
       <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="5">
         <v>2879838</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>45250</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="5">
         <v>42</v>
       </c>
       <c r="G26" t="s">
@@ -7509,13 +7509,13 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="5">
         <v>3013169</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>45475</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="5">
         <v>40</v>
       </c>
       <c r="G27" t="s">
@@ -7535,13 +7535,13 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="5">
         <v>2834849</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>45180</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="5">
         <v>44</v>
       </c>
       <c r="G28" t="s">
@@ -7561,13 +7561,13 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="5">
         <v>2989236</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>45439</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="5">
         <v>44</v>
       </c>
       <c r="G29" t="s">
@@ -7587,13 +7587,13 @@
       <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="5">
         <v>2879844</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>45250</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="5">
         <v>41</v>
       </c>
       <c r="G30" t="s">
@@ -7613,13 +7613,13 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="5">
         <v>2879698</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>45250</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="5">
         <v>44</v>
       </c>
       <c r="G31" t="s">
@@ -7639,13 +7639,13 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="5">
         <v>2879699</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>45250</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="5">
         <v>43</v>
       </c>
       <c r="G32" t="s">
@@ -7665,13 +7665,13 @@
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="5">
         <v>2879849</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>45250</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="5">
         <v>42</v>
       </c>
       <c r="G33" t="s">
@@ -7691,13 +7691,13 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="5">
         <v>2879689</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>45250</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="5">
         <v>27</v>
       </c>
       <c r="G34" t="s">
@@ -7717,13 +7717,13 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="5">
         <v>2879690</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>45250</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="5">
         <v>17</v>
       </c>
       <c r="G35" t="s">
@@ -7743,13 +7743,13 @@
       <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="5">
         <v>2977764</v>
       </c>
-      <c r="E36" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F36" s="19">
+      <c r="E36" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F36" s="5">
         <v>38</v>
       </c>
       <c r="G36" t="s">
@@ -7769,13 +7769,13 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="5">
         <v>2834841</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>45180</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="5">
         <v>45</v>
       </c>
       <c r="G37" t="s">
@@ -7795,13 +7795,13 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="5">
         <v>2834840</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>45180</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="5">
         <v>43</v>
       </c>
       <c r="G38" t="s">
@@ -7821,13 +7821,13 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="5">
         <v>2834839</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>45180</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="5">
         <v>42</v>
       </c>
       <c r="G39" t="s">
@@ -7847,13 +7847,13 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="5">
         <v>2834649</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>45180</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="5">
         <v>39</v>
       </c>
       <c r="G40" t="s">
@@ -7873,13 +7873,13 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="5">
         <v>2834838</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>45180</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="5">
         <v>31</v>
       </c>
       <c r="G41" t="s">
@@ -7899,13 +7899,13 @@
       <c r="C42" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="5">
         <v>2834844</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>45180</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="5">
         <v>43</v>
       </c>
       <c r="G42" t="s">
@@ -7925,13 +7925,13 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="5">
         <v>2879609</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>45250</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="5">
         <v>42</v>
       </c>
       <c r="G43" t="s">
@@ -7951,13 +7951,13 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="5">
         <v>2977741</v>
       </c>
-      <c r="E44" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F44" s="19">
+      <c r="E44" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F44" s="5">
         <v>39</v>
       </c>
       <c r="G44" t="s">
@@ -7977,13 +7977,13 @@
       <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="5">
         <v>2879691</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>45250</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="5">
         <v>26</v>
       </c>
       <c r="G45" t="s">
@@ -8003,13 +8003,13 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="5">
         <v>2879693</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>45250</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="5">
         <v>23</v>
       </c>
       <c r="G46" t="s">
@@ -8029,13 +8029,13 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="5">
         <v>2879694</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>45250</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="5">
         <v>25</v>
       </c>
       <c r="G47" t="s">
@@ -8055,13 +8055,13 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="5">
         <v>2834847</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>45180</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="5">
         <v>44</v>
       </c>
       <c r="G48" t="s">
@@ -8081,13 +8081,13 @@
       <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="5">
         <v>2977744</v>
       </c>
-      <c r="E49" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="E49" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F49" s="5">
         <v>44</v>
       </c>
       <c r="G49" t="s">
@@ -8107,13 +8107,13 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="5">
         <v>2834651</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>45180</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="5">
         <v>41</v>
       </c>
       <c r="G50" t="s">
@@ -8133,13 +8133,13 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="5">
         <v>2977743</v>
       </c>
-      <c r="E51" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F51" s="19">
+      <c r="E51" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F51" s="5">
         <v>41</v>
       </c>
       <c r="G51" t="s">
@@ -8159,13 +8159,13 @@
       <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="5">
         <v>2977742</v>
       </c>
-      <c r="E52" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F52" s="19">
+      <c r="E52" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F52" s="5">
         <v>45</v>
       </c>
       <c r="G52" t="s">
@@ -8185,13 +8185,13 @@
       <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="5">
         <v>2977756</v>
       </c>
-      <c r="E53" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F53" s="19">
+      <c r="E53" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F53" s="5">
         <v>49</v>
       </c>
       <c r="G53" t="s">
@@ -8211,13 +8211,13 @@
       <c r="C54" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="5">
         <v>2977759</v>
       </c>
-      <c r="E54" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F54" s="19">
+      <c r="E54" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F54" s="5">
         <v>40</v>
       </c>
       <c r="G54" t="s">
@@ -8237,13 +8237,13 @@
       <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="5">
         <v>2977757</v>
       </c>
-      <c r="E55" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F55" s="19">
+      <c r="E55" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F55" s="5">
         <v>38</v>
       </c>
       <c r="G55" t="s">
@@ -8263,13 +8263,13 @@
       <c r="C56" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="5">
         <v>2834845</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>45180</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="5">
         <v>30</v>
       </c>
       <c r="G56" t="s">
@@ -8289,13 +8289,13 @@
       <c r="C57" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="5">
         <v>2977754</v>
       </c>
-      <c r="E57" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F57" s="19">
+      <c r="E57" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F57" s="5">
         <v>43</v>
       </c>
       <c r="G57" t="s">
@@ -8315,13 +8315,13 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="5">
         <v>2834842</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>45180</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="5">
         <v>40</v>
       </c>
       <c r="G58" t="s">
@@ -8341,13 +8341,13 @@
       <c r="C59" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="5">
         <v>2977755</v>
       </c>
-      <c r="E59" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="E59" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F59" s="5">
         <v>39</v>
       </c>
       <c r="G59" t="s">
@@ -8367,13 +8367,13 @@
       <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="5">
         <v>2834852</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>45180</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="5">
         <v>35</v>
       </c>
       <c r="G60" t="s">
@@ -8393,13 +8393,13 @@
       <c r="C61" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="5">
         <v>2977760</v>
       </c>
-      <c r="E61" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F61" s="19">
+      <c r="E61" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F61" s="5">
         <v>42</v>
       </c>
       <c r="G61" t="s">
@@ -8419,13 +8419,13 @@
       <c r="C62" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="5">
         <v>3019786</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>45476</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="5">
         <v>45</v>
       </c>
       <c r="G62" t="s">
@@ -8445,13 +8445,13 @@
       <c r="C63" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="5">
         <v>2977761</v>
       </c>
-      <c r="E63" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F63" s="19">
+      <c r="E63" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F63" s="5">
         <v>44</v>
       </c>
       <c r="G63" t="s">
@@ -8471,13 +8471,13 @@
       <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="5">
         <v>2834853</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="19">
         <v>45180</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="5">
         <v>40</v>
       </c>
       <c r="G64" t="s">
@@ -8497,13 +8497,13 @@
       <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="5">
         <v>2977758</v>
       </c>
-      <c r="E65" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F65" s="19">
+      <c r="E65" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F65" s="5">
         <v>39</v>
       </c>
       <c r="G65" t="s">
@@ -8523,13 +8523,13 @@
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="5">
         <v>2834650</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>45180</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="5">
         <v>32</v>
       </c>
       <c r="G66" t="s">
@@ -8549,13 +8549,13 @@
       <c r="C67" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="5">
         <v>2977752</v>
       </c>
-      <c r="E67" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F67" s="19">
+      <c r="E67" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F67" s="5">
         <v>44</v>
       </c>
       <c r="G67" t="s">
@@ -8575,13 +8575,13 @@
       <c r="C68" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="5">
         <v>2977137</v>
       </c>
-      <c r="E68" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F68" s="19">
+      <c r="E68" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F68" s="5">
         <v>40</v>
       </c>
       <c r="G68" t="s">
@@ -8601,13 +8601,13 @@
       <c r="C69" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="5">
         <v>2977740</v>
       </c>
-      <c r="E69" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F69" s="19">
+      <c r="E69" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F69" s="5">
         <v>38</v>
       </c>
       <c r="G69" t="s">
@@ -8627,13 +8627,13 @@
       <c r="C70" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="5">
         <v>2977138</v>
       </c>
-      <c r="E70" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F70" s="19">
+      <c r="E70" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F70" s="5">
         <v>37</v>
       </c>
       <c r="G70" t="s">
@@ -8653,13 +8653,13 @@
       <c r="C71" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="5">
         <v>3070358</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>45551</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="5">
         <v>34</v>
       </c>
       <c r="G71" t="s">
@@ -8679,13 +8679,13 @@
       <c r="C72" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="5">
         <v>2977748</v>
       </c>
-      <c r="E72" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F72" s="19">
+      <c r="E72" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F72" s="5">
         <v>43</v>
       </c>
       <c r="G72" t="s">
@@ -8705,13 +8705,13 @@
       <c r="C73" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="5">
         <v>2977136</v>
       </c>
-      <c r="E73" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F73" s="19">
+      <c r="E73" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F73" s="5">
         <v>40</v>
       </c>
       <c r="G73" t="s">
@@ -8731,13 +8731,13 @@
       <c r="C74" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="5">
         <v>2977634</v>
       </c>
-      <c r="E74" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F74" s="19">
+      <c r="E74" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F74" s="5">
         <v>40</v>
       </c>
       <c r="G74" t="s">
@@ -8757,13 +8757,13 @@
       <c r="C75" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="5">
         <v>3070364</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>45551</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="5">
         <v>37</v>
       </c>
       <c r="G75" t="s">
@@ -8783,13 +8783,13 @@
       <c r="C76" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="5">
         <v>2977749</v>
       </c>
-      <c r="E76" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F76" s="19">
+      <c r="E76" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F76" s="5">
         <v>42</v>
       </c>
       <c r="G76" t="s">
@@ -8809,13 +8809,13 @@
       <c r="C77" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="5">
         <v>2977635</v>
       </c>
-      <c r="E77" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F77" s="19">
+      <c r="E77" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F77" s="5">
         <v>41</v>
       </c>
       <c r="G77" t="s">
@@ -8835,13 +8835,13 @@
       <c r="C78" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="5">
         <v>3070361</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="19">
         <v>45551</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="5">
         <v>40</v>
       </c>
       <c r="G78" t="s">
@@ -8861,13 +8861,13 @@
       <c r="C79" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="5">
         <v>2977751</v>
       </c>
-      <c r="E79" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F79" s="19">
+      <c r="E79" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F79" s="5">
         <v>42</v>
       </c>
       <c r="G79" t="s">
@@ -8887,13 +8887,13 @@
       <c r="C80" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="5">
         <v>2977750</v>
       </c>
-      <c r="E80" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F80" s="19">
+      <c r="E80" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F80" s="5">
         <v>42</v>
       </c>
       <c r="G80" t="s">
@@ -8913,13 +8913,13 @@
       <c r="C81" t="s">
         <v>47</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="5">
         <v>2977747</v>
       </c>
-      <c r="E81" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="E81" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F81" s="5">
         <v>41</v>
       </c>
       <c r="G81" t="s">
@@ -8939,13 +8939,13 @@
       <c r="C82" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="5">
         <v>2977637</v>
       </c>
-      <c r="E82" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F82" s="19">
+      <c r="E82" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F82" s="5">
         <v>39</v>
       </c>
       <c r="G82" t="s">
@@ -8965,13 +8965,13 @@
       <c r="C83" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="5">
         <v>3070363</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="19">
         <v>45551</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="5">
         <v>37</v>
       </c>
       <c r="G83" t="s">
@@ -8991,13 +8991,13 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="5">
         <v>2879610</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="19">
         <v>45250</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="5">
         <v>38</v>
       </c>
       <c r="G84" t="s">
@@ -9017,13 +9017,13 @@
       <c r="C85" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="5">
         <v>2977135</v>
       </c>
-      <c r="E85" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F85" s="19">
+      <c r="E85" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F85" s="5">
         <v>37</v>
       </c>
       <c r="G85" t="s">
@@ -9043,13 +9043,13 @@
       <c r="C86" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="5">
         <v>3070362</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="19">
         <v>45551</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="5">
         <v>35</v>
       </c>
       <c r="G86" t="s">
@@ -9069,13 +9069,13 @@
       <c r="C87" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="5">
         <v>3070360</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>45551</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="5">
         <v>36</v>
       </c>
       <c r="G87" t="s">
@@ -9095,13 +9095,13 @@
       <c r="C88" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="5">
         <v>2834856</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="19">
         <v>45180</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="5">
         <v>42</v>
       </c>
       <c r="G88" t="s">
@@ -9121,13 +9121,13 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="5">
         <v>2834855</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="19">
         <v>45180</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="5">
         <v>41</v>
       </c>
       <c r="G89" t="s">
@@ -9147,13 +9147,13 @@
       <c r="C90" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="5">
         <v>2834854</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="19">
         <v>45180</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="5">
         <v>39</v>
       </c>
       <c r="G90" t="s">
@@ -9173,13 +9173,13 @@
       <c r="C91" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="5">
         <v>2834850</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>45180</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="5">
         <v>38</v>
       </c>
       <c r="G91" t="s">
@@ -9199,13 +9199,13 @@
       <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="5">
         <v>2834848</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="19">
         <v>45180</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="5">
         <v>44</v>
       </c>
       <c r="G92" t="s">
@@ -9225,13 +9225,13 @@
       <c r="C93" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="5">
         <v>2995652</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>45447</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="5">
         <v>53</v>
       </c>
       <c r="G93" t="s">
@@ -9251,13 +9251,13 @@
       <c r="C94" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="5">
         <v>2977746</v>
       </c>
-      <c r="E94" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F94" s="19">
+      <c r="E94" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F94" s="5">
         <v>43</v>
       </c>
       <c r="G94" t="s">
@@ -9277,13 +9277,13 @@
       <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="5">
         <v>2879696</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="19">
         <v>45250</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="5">
         <v>39</v>
       </c>
       <c r="G95" t="s">
@@ -9303,13 +9303,13 @@
       <c r="C96" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="5">
         <v>2977763</v>
       </c>
-      <c r="E96" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F96" s="19">
+      <c r="E96" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F96" s="5">
         <v>44</v>
       </c>
       <c r="G96" t="s">
@@ -9329,13 +9329,13 @@
       <c r="C97" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="5">
         <v>2879846</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>45250</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="5">
         <v>43</v>
       </c>
       <c r="G97" t="s">
@@ -9355,13 +9355,13 @@
       <c r="C98" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="5">
         <v>2977471</v>
       </c>
-      <c r="E98" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F98" s="19">
+      <c r="E98" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F98" s="5">
         <v>41</v>
       </c>
       <c r="G98" t="s">
@@ -9381,13 +9381,13 @@
       <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="5">
         <v>2879695</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>45250</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="5">
         <v>38</v>
       </c>
       <c r="G99" t="s">
@@ -9407,13 +9407,13 @@
       <c r="C100" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="5">
         <v>2977762</v>
       </c>
-      <c r="E100" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F100" s="19">
+      <c r="E100" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F100" s="5">
         <v>36</v>
       </c>
       <c r="G100" t="s">
@@ -9433,13 +9433,13 @@
       <c r="C101" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="5">
         <v>2977753</v>
       </c>
-      <c r="E101" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F101" s="19">
+      <c r="E101" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F101" s="5">
         <v>38</v>
       </c>
       <c r="G101" t="s">
@@ -9459,13 +9459,13 @@
       <c r="C102" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="5">
         <v>3069982</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="19">
         <v>45551</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="5">
         <v>50</v>
       </c>
       <c r="G102" t="s">
@@ -9485,13 +9485,13 @@
       <c r="C103" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="5">
         <v>3070322</v>
       </c>
-      <c r="E103" s="20">
+      <c r="E103" s="19">
         <v>45551</v>
       </c>
-      <c r="F103" s="19">
+      <c r="F103" s="5">
         <v>40</v>
       </c>
       <c r="G103" t="s">
@@ -9511,13 +9511,13 @@
       <c r="C104" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="5">
         <v>3070348</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="19">
         <v>45551</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="5">
         <v>40</v>
       </c>
       <c r="G104" t="s">
@@ -9537,13 +9537,13 @@
       <c r="C105" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="5">
         <v>3070318</v>
       </c>
-      <c r="E105" s="20">
+      <c r="E105" s="19">
         <v>45551</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="5">
         <v>38</v>
       </c>
       <c r="G105" t="s">
@@ -9563,13 +9563,13 @@
       <c r="C106" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="5">
         <v>3070316</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="19">
         <v>45551</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="5">
         <v>36</v>
       </c>
       <c r="G106" t="s">
@@ -9589,13 +9589,13 @@
       <c r="C107" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="5">
         <v>3070320</v>
       </c>
-      <c r="E107" s="20">
+      <c r="E107" s="19">
         <v>45551</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="5">
         <v>35</v>
       </c>
       <c r="G107" t="s">
@@ -9615,13 +9615,13 @@
       <c r="C108" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="5">
         <v>3070314</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="19">
         <v>45551</v>
       </c>
-      <c r="F108" s="19">
+      <c r="F108" s="5">
         <v>37</v>
       </c>
       <c r="G108" t="s">
@@ -9641,13 +9641,13 @@
       <c r="C109" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="5">
         <v>3069983</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="19">
         <v>45551</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="5">
         <v>50</v>
       </c>
       <c r="G109" t="s">
@@ -9667,13 +9667,13 @@
       <c r="C110" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="5">
         <v>3070323</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="19">
         <v>45551</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="5">
         <v>40</v>
       </c>
       <c r="G110" t="s">
@@ -9693,13 +9693,13 @@
       <c r="C111" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="5">
         <v>3070296</v>
       </c>
-      <c r="E111" s="20">
+      <c r="E111" s="19">
         <v>45551</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="5">
         <v>39</v>
       </c>
       <c r="G111" t="s">
@@ -9719,13 +9719,13 @@
       <c r="C112" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="5">
         <v>3070324</v>
       </c>
-      <c r="E112" s="20">
+      <c r="E112" s="19">
         <v>45551</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F112" s="5">
         <v>39</v>
       </c>
       <c r="G112" t="s">
@@ -9745,13 +9745,13 @@
       <c r="C113" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="5">
         <v>3070326</v>
       </c>
-      <c r="E113" s="20">
+      <c r="E113" s="19">
         <v>45551</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="5">
         <v>37</v>
       </c>
       <c r="G113" t="s">
@@ -9771,13 +9771,13 @@
       <c r="C114" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="5">
         <v>3070317</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E114" s="19">
         <v>45551</v>
       </c>
-      <c r="F114" s="19">
+      <c r="F114" s="5">
         <v>36</v>
       </c>
       <c r="G114" t="s">
@@ -9797,13 +9797,13 @@
       <c r="C115" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="5">
         <v>3070321</v>
       </c>
-      <c r="E115" s="20">
+      <c r="E115" s="19">
         <v>45551</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="5">
         <v>35</v>
       </c>
       <c r="G115" t="s">
@@ -9823,13 +9823,13 @@
       <c r="C116" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="5">
         <v>3064539</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="19">
         <v>45544</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="5">
         <v>49</v>
       </c>
       <c r="G116" t="s">
@@ -9849,13 +9849,13 @@
       <c r="C117" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="5">
         <v>3059847</v>
       </c>
-      <c r="E117" s="20">
+      <c r="E117" s="19">
         <v>45540</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="5">
         <v>45</v>
       </c>
       <c r="G117" t="s">
@@ -9875,13 +9875,13 @@
       <c r="C118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="5">
         <v>3070315</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="19">
         <v>45551</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="5">
         <v>39</v>
       </c>
       <c r="G118" t="s">
@@ -9901,13 +9901,13 @@
       <c r="C119" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="5">
         <v>3070350</v>
       </c>
-      <c r="E119" s="20">
+      <c r="E119" s="19">
         <v>45551</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F119" s="5">
         <v>37</v>
       </c>
       <c r="G119" t="s">
@@ -9927,13 +9927,13 @@
       <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="5">
         <v>3070325</v>
       </c>
-      <c r="E120" s="20">
+      <c r="E120" s="19">
         <v>45551</v>
       </c>
-      <c r="F120" s="19">
+      <c r="F120" s="5">
         <v>36</v>
       </c>
       <c r="G120" t="s">
@@ -9953,13 +9953,13 @@
       <c r="C121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="5">
         <v>3070313</v>
       </c>
-      <c r="E121" s="20">
+      <c r="E121" s="19">
         <v>45551</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="5">
         <v>33</v>
       </c>
       <c r="G121" t="s">
@@ -9979,13 +9979,13 @@
       <c r="C122" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="5">
         <v>3070319</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E122" s="19">
         <v>45551</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="5">
         <v>37</v>
       </c>
       <c r="G122" t="s">
@@ -10005,13 +10005,13 @@
       <c r="C123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="5">
         <v>2977467</v>
       </c>
-      <c r="E123" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F123" s="19">
+      <c r="E123" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F123" s="5">
         <v>42</v>
       </c>
       <c r="G123" t="s">
@@ -10031,13 +10031,13 @@
       <c r="C124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="5">
         <v>2977461</v>
       </c>
-      <c r="E124" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F124" s="19">
+      <c r="E124" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F124" s="5">
         <v>40</v>
       </c>
       <c r="G124" t="s">
@@ -10057,13 +10057,13 @@
       <c r="C125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="5">
         <v>2977465</v>
       </c>
-      <c r="E125" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F125" s="19">
+      <c r="E125" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F125" s="5">
         <v>40</v>
       </c>
       <c r="G125" t="s">
@@ -10083,13 +10083,13 @@
       <c r="C126" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="5">
         <v>2879546</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="19">
         <v>45250</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="5">
         <v>37</v>
       </c>
       <c r="G126" t="s">
@@ -10109,13 +10109,13 @@
       <c r="C127" t="s">
         <v>33</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="5">
         <v>2977228</v>
       </c>
-      <c r="E127" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F127" s="19">
+      <c r="E127" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F127" s="5">
         <v>44</v>
       </c>
       <c r="G127" t="s">
@@ -10135,13 +10135,13 @@
       <c r="C128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="5">
         <v>2977457</v>
       </c>
-      <c r="E128" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F128" s="19">
+      <c r="E128" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F128" s="5">
         <v>41</v>
       </c>
       <c r="G128" t="s">
@@ -10161,13 +10161,13 @@
       <c r="C129" t="s">
         <v>13</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="5">
         <v>2977464</v>
       </c>
-      <c r="E129" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F129" s="19">
+      <c r="E129" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F129" s="5">
         <v>40</v>
       </c>
       <c r="G129" t="s">
@@ -10187,13 +10187,13 @@
       <c r="C130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="5">
         <v>2977459</v>
       </c>
-      <c r="E130" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F130" s="19">
+      <c r="E130" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F130" s="5">
         <v>38</v>
       </c>
       <c r="G130" t="s">
@@ -10213,13 +10213,13 @@
       <c r="C131" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D131" s="5">
         <v>2834843</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="19">
         <v>45180</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="5">
         <v>33</v>
       </c>
       <c r="G131" t="s">
@@ -10239,13 +10239,13 @@
       <c r="C132" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="5">
         <v>2977458</v>
       </c>
-      <c r="E132" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F132" s="19">
+      <c r="E132" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F132" s="5">
         <v>39</v>
       </c>
       <c r="G132" t="s">
@@ -10265,13 +10265,13 @@
       <c r="C133" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D133" s="5">
         <v>2977466</v>
       </c>
-      <c r="E133" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F133" s="19">
+      <c r="E133" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F133" s="5">
         <v>46</v>
       </c>
       <c r="G133" t="s">
@@ -10291,13 +10291,13 @@
       <c r="C134" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="5">
         <v>2977229</v>
       </c>
-      <c r="E134" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F134" s="19">
+      <c r="E134" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F134" s="5">
         <v>43</v>
       </c>
       <c r="G134" t="s">
@@ -10317,13 +10317,13 @@
       <c r="C135" t="s">
         <v>13</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="5">
         <v>2834846</v>
       </c>
-      <c r="E135" s="20">
+      <c r="E135" s="19">
         <v>45180</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="5">
         <v>41</v>
       </c>
       <c r="G135" t="s">
@@ -10343,13 +10343,13 @@
       <c r="C136" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="5">
         <v>2977462</v>
       </c>
-      <c r="E136" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F136" s="19">
+      <c r="E136" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F136" s="5">
         <v>40</v>
       </c>
       <c r="G136" t="s">
@@ -10369,13 +10369,13 @@
       <c r="C137" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="5">
         <v>2977227</v>
       </c>
-      <c r="E137" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F137" s="19">
+      <c r="E137" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F137" s="5">
         <v>46</v>
       </c>
       <c r="G137" t="s">
@@ -10395,13 +10395,13 @@
       <c r="C138" t="s">
         <v>33</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="5">
         <v>2977230</v>
       </c>
-      <c r="E138" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F138" s="19">
+      <c r="E138" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F138" s="5">
         <v>45</v>
       </c>
       <c r="G138" t="s">
@@ -10421,13 +10421,13 @@
       <c r="C139" t="s">
         <v>33</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="5">
         <v>2977225</v>
       </c>
-      <c r="E139" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F139" s="19">
+      <c r="E139" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F139" s="5">
         <v>44</v>
       </c>
       <c r="G139" t="s">
@@ -10447,13 +10447,13 @@
       <c r="C140" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="5">
         <v>2977226</v>
       </c>
-      <c r="E140" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F140" s="19">
+      <c r="E140" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F140" s="5">
         <v>41</v>
       </c>
       <c r="G140" t="s">
@@ -10473,13 +10473,13 @@
       <c r="C141" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="5">
         <v>2977463</v>
       </c>
-      <c r="E141" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F141" s="19">
+      <c r="E141" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F141" s="5">
         <v>40</v>
       </c>
       <c r="G141" t="s">
@@ -10499,13 +10499,13 @@
       <c r="C142" t="s">
         <v>13</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="5">
         <v>2977460</v>
       </c>
-      <c r="E142" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F142" s="19">
+      <c r="E142" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F142" s="5">
         <v>39</v>
       </c>
       <c r="G142" t="s">
@@ -10525,13 +10525,13 @@
       <c r="C143" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="5">
         <v>2879848</v>
       </c>
-      <c r="E143" s="20">
+      <c r="E143" s="19">
         <v>45250</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="5">
         <v>44</v>
       </c>
       <c r="G143" t="s">
@@ -10551,13 +10551,13 @@
       <c r="C144" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="5">
         <v>2977470</v>
       </c>
-      <c r="E144" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F144" s="19">
+      <c r="E144" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F144" s="5">
         <v>42</v>
       </c>
       <c r="G144" t="s">
@@ -10577,13 +10577,13 @@
       <c r="C145" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="5">
         <v>2977468</v>
       </c>
-      <c r="E145" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F145" s="19">
+      <c r="E145" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F145" s="5">
         <v>41</v>
       </c>
       <c r="G145" t="s">
@@ -10603,13 +10603,13 @@
       <c r="C146" t="s">
         <v>95</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="5">
         <v>3059562</v>
       </c>
-      <c r="E146" s="20">
+      <c r="E146" s="19">
         <v>45540</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="5">
         <v>40</v>
       </c>
       <c r="G146" t="s">
@@ -10629,13 +10629,13 @@
       <c r="C147" t="s">
         <v>73</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="5">
         <v>2977636</v>
       </c>
-      <c r="E147" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F147" s="19">
+      <c r="E147" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F147" s="5">
         <v>39</v>
       </c>
       <c r="G147" t="s">
@@ -10655,13 +10655,13 @@
       <c r="C148" t="s">
         <v>103</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="5">
         <v>3041902</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="19">
         <v>45537</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="5">
         <v>32</v>
       </c>
       <c r="G148" t="s">
@@ -10681,13 +10681,13 @@
       <c r="C149" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="5">
         <v>2977469</v>
       </c>
-      <c r="E149" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F149" s="19">
+      <c r="E149" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F149" s="5">
         <v>43</v>
       </c>
       <c r="G149" t="s">
@@ -10707,13 +10707,13 @@
       <c r="C150" t="s">
         <v>13</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="5">
         <v>2977472</v>
       </c>
-      <c r="E150" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F150" s="19">
+      <c r="E150" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F150" s="5">
         <v>46</v>
       </c>
       <c r="G150" t="s">
@@ -10733,13 +10733,13 @@
       <c r="C151" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="5">
         <v>2879572</v>
       </c>
-      <c r="E151" s="20">
+      <c r="E151" s="19">
         <v>45250</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="5">
         <v>44</v>
       </c>
       <c r="G151" t="s">
@@ -10759,13 +10759,13 @@
       <c r="C152" t="s">
         <v>47</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="5">
         <v>2977745</v>
       </c>
-      <c r="E152" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F152" s="19">
+      <c r="E152" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F152" s="5">
         <v>42</v>
       </c>
       <c r="G152" t="s">
@@ -10785,13 +10785,13 @@
       <c r="C153" t="s">
         <v>13</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="5">
         <v>2977473</v>
       </c>
-      <c r="E153" s="20">
-        <v>45426</v>
-      </c>
-      <c r="F153" s="19">
+      <c r="E153" s="19">
+        <v>45426</v>
+      </c>
+      <c r="F153" s="5">
         <v>41</v>
       </c>
       <c r="G153" t="s">
@@ -10811,13 +10811,13 @@
       <c r="C154" t="s">
         <v>33</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="5">
         <v>3070351</v>
       </c>
-      <c r="E154" s="20">
+      <c r="E154" s="19">
         <v>45551</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="5">
         <v>39</v>
       </c>
       <c r="G154" t="s">
@@ -10837,13 +10837,13 @@
       <c r="C155" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="5">
         <v>2879692</v>
       </c>
-      <c r="E155" s="20">
+      <c r="E155" s="19">
         <v>45250</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="5">
         <v>26</v>
       </c>
       <c r="G155" t="s">
@@ -10863,13 +10863,13 @@
       <c r="C156" t="s">
         <v>103</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="5">
         <v>3041909</v>
       </c>
-      <c r="E156" s="20">
+      <c r="E156" s="19">
         <v>45537</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="5">
         <v>49</v>
       </c>
       <c r="G156" t="s">
